--- a/Approximationen/Substations.xlsx
+++ b/Approximationen/Substations.xlsx
@@ -101,8 +101,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.26625678040244971"/>
-                  <c:y val="4.9750291630212891E-2"/>
+                  <c:x val="-0.26625678040244977"/>
+                  <c:y val="4.9750291630212905E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -169,11 +169,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="103665664"/>
-        <c:axId val="103663872"/>
+        <c:axId val="84756352"/>
+        <c:axId val="84762624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103665664"/>
+        <c:axId val="84756352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -199,12 +199,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103663872"/>
+        <c:crossAx val="84762624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103663872"/>
+        <c:axId val="84762624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -230,7 +230,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103665664"/>
+        <c:crossAx val="84756352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -239,7 +239,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -249,16 +249,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -568,7 +568,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="N10:O10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Approximationen/Substations.xlsx
+++ b/Approximationen/Substations.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_59ED8E12F73C322FDE24899839A51F7565170002" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{F62ED38E-0EF0-42F9-84FC-92D281B889B1}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -36,8 +45,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,18 +83,37 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
-  <c:style val="3"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -97,6 +125,7 @@
           <c:trendline>
             <c:trendlineType val="linear"/>
             <c:backward val="0.05"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -168,7 +197,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3E97-46C1-AA62-90C909FDEA10}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="84756352"/>
         <c:axId val="84762624"/>
       </c:scatterChart>
@@ -178,6 +221,7 @@
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -195,9 +239,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="84762624"/>
         <c:crosses val="autoZero"/>
@@ -208,6 +254,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -226,9 +273,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="84756352"/>
         <c:crosses val="autoZero"/>
@@ -236,6 +285,8 @@
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -262,7 +313,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -281,9 +338,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -321,9 +378,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,9 +412,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,9 +464,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -564,21 +657,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -592,7 +685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50</v>
       </c>
@@ -608,7 +701,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -624,7 +717,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>150</v>
       </c>
@@ -640,7 +733,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>200</v>
       </c>
@@ -656,7 +749,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>250</v>
       </c>
@@ -672,7 +765,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>300</v>
       </c>
@@ -688,7 +781,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>500</v>
       </c>
@@ -712,12 +805,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -725,12 +818,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Approximationen/Substations.xlsx
+++ b/Approximationen/Substations.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_59ED8E12F73C322FDE24899839A51F7565170002" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{F62ED38E-0EF0-42F9-84FC-92D281B889B1}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_59ED8E12F73C322FDE24899839A51F7565170002" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{D5049323-7AD1-4F93-84B8-7CD4DE9E94B9}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -125,6 +125,7 @@
           <c:trendline>
             <c:trendlineType val="linear"/>
             <c:backward val="0.05"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -661,7 +662,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
